--- a/biology/Médecine/Christophe_de_Jaeger/Christophe_de_Jaeger.xlsx
+++ b/biology/Médecine/Christophe_de_Jaeger/Christophe_de_Jaeger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe de Jaeger, né le 10 août 1959 à Paris, est un médecin gériatre et chercheur français spécialisé dans le vieillissement du corps humain. 
 Au sein de son Institut pour la longévité basé à Paris, ses études scientifiques sont axées sur le vieillissement.
@@ -512,18 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le cadet d’une famille de quatre enfants, issue de parents artistes, Sa passion de la physiologie du vieillissement remonte à son adolescence et il doit à sa rencontre avec le professeur André Lwoff (prix Nobel de physiologie ou médecine en 1965) son engagement à la faculté de médecine de Paris[réf. souhaitée]. Il y poursuit ses études en ayant toujours en arrière-pensée la percée des secrets du vieillissement. Il s’oriente vers le domaine de la gériatrie pendant ses études.
 Après avoir travaillé en médecine interne et en médecine préventive, il quitte l’Assistance publique de Paris et part diriger pendant près de 15 ans un service de gériatrie active dans le Val-d'Oise. Parallèlement, il continue ses études à la Faculté des sciences où il obtiendra un diplôme d'études approfondies en biologie du Vieillissement. De nombreux voyages vont l’amener à rencontrer des physiologistes, en particulier aux États-Unis (professeur Roy Walford – université de Californie à Los Angeles) et au Canada, mais également au Royaume-Uni, en Allemagne, en Italie, en Espagne et en Russie. Il crée en 2000 l’Institut européen du vieillissement[réf. souhaitée], spécialisé dans le concept de l’âge physiologique, vrai reflet du vieillissement humain et outil de mesure incontournable afin d’évaluer les différentes méthodes d’action contre le vieillissement humain[réf. nécessaire]. 
-Christophe de Jaeger va créer la Société française de médecine et physiologie de la longévité (SFMPL)[réf. souhaitée], jeune société savante réunissant médecins, biologistes, chercheurs, etc., désireux de mieux connaître le processus du vieillissement et ses conséquences en médecine. Il devient le rédacteur en chef de la revue Médecine et Longévité chez Elsevier Masson[1][Quand ?]. Christophe de Jaeger est membre du Collège français des enseignants universitaires en physiologie et santé[réf. souhaitée] ainsi que membre du Conseil national des professionnels en gériatrie[réf. souhaitée].
+Christophe de Jaeger va créer la Société française de médecine et physiologie de la longévité (SFMPL)[réf. souhaitée], jeune société savante réunissant médecins, biologistes, chercheurs, etc., désireux de mieux connaître le processus du vieillissement et ses conséquences en médecine. Il devient le rédacteur en chef de la revue Médecine et Longévité chez Elsevier Masson[Quand ?]. Christophe de Jaeger est membre du Collège français des enseignants universitaires en physiologie et santé[réf. souhaitée] ainsi que membre du Conseil national des professionnels en gériatrie[réf. souhaitée].
 Christophe de Jaeger va également créer l'Institut européen pour la longévité (IEL) et l'Institut de Jaeger (IDJ) en hommage à son père Albert de Jaeger, Premier grand Prix de Rome, et créateur de la médaille de la médecine adaptée pour le Prix Galien de l'innovation pharmaceutique, décerné annuellement dans de nombreux pays[pas clair]. L'Institut de Jaeger est une structure de réflexion axée sur la très grande longévité en bonne santé sous tous ses aspects (physiologique, médical, psychologique, sociologique, philosophique, économique...). L'Institut de Jaeger, structure à but lucratif, organise un colloque annuel qui se déroule soit à l'Assemblée nationale[réf. souhaitée], soit au Sénat.
 Il obtient (conjointement avec le docteur Didier Buthiau) la médaille d'or de l'Annuel meeting of the American Roentgen Ray Society, Washington, April 2013 [réf. nécessaire].
-Parcours scientifique et enseignement
-Christophe de Jaeger est docteur en médecine (1988) et titulaire d’un diplôme d'études approfondies en biologie du vieillissement à l'université Paris-Diderot (1992). Il se spécialise immédiatement en gériatrie et crée la consultation de gériatrie à l'hôpital Broussais à Paris[réf. souhaitée].
-Un des meilleurs spécialistes de l’âge physiologique en Europe, il défend sans relâche ces paramètres qui permettent d'obtenir une mesure objective du vieillissement humain[réf. nécessaire]. Il fut également rédacteur en chef de la revue Médecine et Longévité[1], où il signe de nombreux articles scientifiques et médicaux. Il crée le Centre d’évaluation gérontologique en 1998, autour d’un plateau technique sophistiqué, afin de dépister et de traiter les pathologies du cerveau et en particulier de la mémoire[réf. souhaitée].
-Il a été élu professeur de physiologie médicale à la faculté des sciences appliquées de l'université Megatrend[réf. souhaitée]. Cette université est la plus grande université privée européenne (Londres, Paris, Vienne, Belgrade). Il devient le premier titulaire de la Chaire de la Longévité.
-Il est chargé d'enseignement à la faculté de médecine de Paris et à la faculté de médecine de Lille. Il participe également comme enseignant dans le Master Recherche, mention : Biologie Intégrative et Physiologie (BIP), Spécialité M2 de Biologie du Vieillissement (Université de Paris).
 </t>
         </is>
       </c>
@@ -549,13 +558,58 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours scientifique et enseignement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe de Jaeger est docteur en médecine (1988) et titulaire d’un diplôme d'études approfondies en biologie du vieillissement à l'université Paris-Diderot (1992). Il se spécialise immédiatement en gériatrie et crée la consultation de gériatrie à l'hôpital Broussais à Paris[réf. souhaitée].
+Un des meilleurs spécialistes de l’âge physiologique en Europe, il défend sans relâche ces paramètres qui permettent d'obtenir une mesure objective du vieillissement humain[réf. nécessaire]. Il fut également rédacteur en chef de la revue Médecine et Longévité, où il signe de nombreux articles scientifiques et médicaux. Il crée le Centre d’évaluation gérontologique en 1998, autour d’un plateau technique sophistiqué, afin de dépister et de traiter les pathologies du cerveau et en particulier de la mémoire[réf. souhaitée].
+Il a été élu professeur de physiologie médicale à la faculté des sciences appliquées de l'université Megatrend[réf. souhaitée]. Cette université est la plus grande université privée européenne (Londres, Paris, Vienne, Belgrade). Il devient le premier titulaire de la Chaire de la Longévité.
+Il est chargé d'enseignement à la faculté de médecine de Paris et à la faculté de médecine de Lille. Il participe également comme enseignant dans le Master Recherche, mention : Biologie Intégrative et Physiologie (BIP), Spécialité M2 de Biologie du Vieillissement (Université de Paris).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christophe_de_Jaeger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_de_Jaeger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ouvrage de vulgarisation
-La Gérontologie, 3e édition mise à jour, octobre 2008 (1re édition octobre 1992); coll. « Que sais-je ? » no 2696, Presses universitaires de France  (ISBN 2-13-044957-3)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrage de vulgarisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Gérontologie, 3e édition mise à jour, octobre 2008 (1re édition octobre 1992); coll. « Que sais-je ? » no 2696, Presses universitaires de France  (ISBN 2-13-044957-3)
 Les Techniques de lutte contre le vieillissement, 4e éditions mise à jour, avril 2009 (1re édition, 1999), coll. « Que sais-je ? » no 3463, Presses universitaires de France  (ISBN 978-2-13-057394-4)
 La DHEA : mythe et réalités, éditions Albin Michel, septembre 2001, réédition en novembre 2003  (ISBN 2-226-12674-0)
 Vieillir, coll. « Idées reçues », éditions le Cavalier Bleu, mars 2002  (ISBN 2-84670-016-8)
@@ -564,9 +618,43 @@
 Le Muscle, le sport et la longévité, éditions Odile Jacob, février 2011  (ISBN 978-2-7381-2538-5)
 Nous ne sommes plus faits pour vieillir, Grasset, mai 2012, réédition octobre 2013,  (ISBN 978-2-246-78426-5)
 Longue vie (pour une vie plus longue en bonne santé), Editions Télémaque, 2015,  (ISBN 978-2-7533-0272-3)
-Bien vieillir sans médicaments, Editions du Cherche Midi, 2018,  (ISBN 978-2-7491-4870-0)
-Participation à des ouvrages collectifs
-L'Avenir heureux - Aidez vos parents à mieux vieillir, éditions Solar, 1992
+Bien vieillir sans médicaments, Editions du Cherche Midi, 2018,  (ISBN 978-2-7491-4870-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christophe_de_Jaeger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christophe_de_Jaeger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Participation à des ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Avenir heureux - Aidez vos parents à mieux vieillir, éditions Solar, 1992
 Guide encyclopédique de la forme et du bien-être, éditions du Seuil, janvier 1998
 Gérontologie préventive : éléments de prévention du vieillissement pathologique, coll. « Abrégé », sous la direction de Christophe Trivalle, 1re édition 2002, seconde édition 2009, éditions Masson, 2009  (ISBN 978-2-294-70122-1)
 Dictionnaire de la pensée médicale, le vieillissement, sous la direction de Dominique Lecourt, Presses universitaires de France, janvier 2004  (ISBN 2-13-051602-5)
